--- a/Excel/镇魂街/个人竞技/个人竞技.xlsx
+++ b/Excel/镇魂街/个人竞技/个人竞技.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27810" windowHeight="13140" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="arena_score" sheetId="10" r:id="rId1"/>
@@ -228,10 +228,10 @@
     <t>曹玄亮1</t>
   </si>
   <si>
-    <t>战斗夏玲1</t>
-  </si>
-  <si>
-    <t>关羽1</t>
+    <t>黑尔·坎普1</t>
+  </si>
+  <si>
+    <t>许褚1</t>
   </si>
   <si>
     <t>1301001#1</t>
@@ -240,10 +240,10 @@
     <t>1301001#1|1304001#1</t>
   </si>
   <si>
-    <t>许褚1</t>
-  </si>
-  <si>
-    <t>典韦1</t>
+    <t>唐流雨1</t>
+  </si>
+  <si>
+    <t>于禁1</t>
   </si>
   <si>
     <t>Name</t>
@@ -6314,10 +6314,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -6339,68 +6339,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6430,25 +6379,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6463,7 +6395,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6476,8 +6445,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6504,7 +6504,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6522,19 +6606,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6546,49 +6618,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6600,37 +6630,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6648,25 +6648,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6684,7 +6666,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6713,56 +6713,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -6787,6 +6737,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -6804,9 +6763,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6818,10 +6818,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6830,137 +6830,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6988,6 +6988,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -7479,7 +7480,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -8022,32 +8023,32 @@
       </c>
     </row>
     <row r="9" spans="3:15">
-      <c r="C9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
     </row>
     <row r="10" spans="3:15">
-      <c r="C10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -8061,7 +8062,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8250,7 +8251,7 @@
       <c r="B8" s="7">
         <v>1</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="9">
         <v>1101001</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -8275,14 +8276,14 @@
       <c r="B9" s="7">
         <v>2</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="9">
         <v>1101002</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>68</v>
       </c>
       <c r="E9" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>66</v>
@@ -8300,14 +8301,14 @@
       <c r="B10" s="7">
         <v>3</v>
       </c>
-      <c r="C10" s="7">
-        <v>1101003</v>
+      <c r="C10" s="9">
+        <v>1101008</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>69</v>
       </c>
       <c r="E10" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>66</v>
@@ -8325,14 +8326,14 @@
       <c r="B11" s="7">
         <v>4</v>
       </c>
-      <c r="C11" s="7">
-        <v>1102001</v>
+      <c r="C11" s="9">
+        <v>1102002</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E11" s="8">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>71</v>
@@ -8352,14 +8353,14 @@
       <c r="B12" s="7">
         <v>5</v>
       </c>
-      <c r="C12" s="7">
-        <v>1102002</v>
+      <c r="C12" s="9">
+        <v>1102004</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>73</v>
       </c>
       <c r="E12" s="8">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>71</v>
@@ -8379,14 +8380,14 @@
       <c r="B13" s="7">
         <v>6</v>
       </c>
-      <c r="C13" s="7">
-        <v>1102003</v>
+      <c r="C13" s="9">
+        <v>1102015</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>74</v>
       </c>
       <c r="E13" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>71</v>
